--- a/example_pd/pd.xlsx
+++ b/example_pd/pd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15360" windowHeight="8985" tabRatio="764"/>
+    <workbookView windowWidth="28800" windowHeight="14070" tabRatio="764"/>
   </bookViews>
   <sheets>
     <sheet name="reactions" sheetId="1" r:id="rId1"/>
@@ -604,35 +604,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.000_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,7 +633,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -662,8 +691,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -678,24 +738,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -708,52 +753,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,9 +766,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -801,13 +800,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,7 +830,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,13 +848,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,49 +866,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,7 +890,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,7 +914,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,31 +932,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,13 +950,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,10 +1011,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1045,17 +1042,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1078,17 +1071,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1098,134 +1097,134 @@
     <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1702,8 +1701,8 @@
   <sheetPr/>
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="22" zoomScaleNormal="22" workbookViewId="0">
-      <selection activeCell="AF78" sqref="AF78"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="12.75"/>
